--- a/src/templates/TEMPLATE_BYA.xlsx
+++ b/src/templates/TEMPLATE_BYA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D18A1-5F16-4791-B176-1284BC7EB68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206E89AF-C8C9-43FB-B8E8-C35B8BF6506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="80">
   <si>
     <t>GUIA DE TRANSPORTE</t>
   </si>
@@ -27,9 +27,6 @@
     <t>NIT. 901.469.273-6</t>
   </si>
   <si>
-    <t>cffdaabc-044f-4c64-9bed-408af4da0439</t>
-  </si>
-  <si>
     <t>PUNTO DE SERVICIO:</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>RBA -</t>
+  </si>
+  <si>
+    <t>EMPRESA DE SERVICIOS LOGISTICA Y TRANSPORTE DE CARGA B&amp;A SAS</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1483,8 @@
   </sheetPr>
   <dimension ref="B1:AZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55:U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1498,7 +1498,7 @@
     <col min="8" max="8" width="7.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.109375" style="1" customWidth="1"/>
     <col min="14" max="16" width="2.6640625" style="1" customWidth="1"/>
@@ -1554,14 +1554,14 @@
     </row>
     <row r="2" spans="2:52">
       <c r="B2" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="H2" s="51" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
@@ -1611,9 +1611,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
-      <c r="L3" s="52" t="s">
-        <v>3</v>
-      </c>
+      <c r="L3" s="52"/>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
@@ -1624,7 +1622,7 @@
       <c r="T3" s="52"/>
       <c r="U3" s="52"/>
       <c r="V3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W3" s="54">
         <v>10090</v>
@@ -1651,7 +1649,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
       <c r="H4" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
@@ -1690,7 +1688,7 @@
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="H5" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
@@ -1712,22 +1710,22 @@
     </row>
     <row r="6" spans="2:52">
       <c r="B6" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
       <c r="E6" s="57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="57" t="s">
         <v>6</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>7</v>
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="57"/>
@@ -1740,11 +1738,11 @@
       <c r="T6" s="57"/>
       <c r="U6" s="7"/>
       <c r="V6" s="58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W6" s="58"/>
       <c r="X6" s="59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="59"/>
       <c r="Z6" s="60"/>
@@ -1774,24 +1772,24 @@
     </row>
     <row r="7" spans="2:52" ht="18.75" customHeight="1">
       <c r="B7" s="61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="51" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>13</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="63" t="s">
         <v>14</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>15</v>
       </c>
       <c r="L7" s="63"/>
       <c r="M7" s="63"/>
@@ -1804,11 +1802,11 @@
       <c r="T7" s="64"/>
       <c r="U7" s="11"/>
       <c r="V7" s="55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W7" s="55"/>
       <c r="X7" s="65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y7" s="65"/>
       <c r="Z7" s="66"/>
@@ -1834,7 +1832,7 @@
     </row>
     <row r="8" spans="2:52" ht="15" customHeight="1">
       <c r="B8" s="67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -1842,7 +1840,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="69"/>
       <c r="H8" s="67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
@@ -1850,13 +1848,13 @@
       <c r="L8" s="68"/>
       <c r="M8" s="69"/>
       <c r="N8" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="57"/>
       <c r="P8" s="57"/>
       <c r="Q8" s="57"/>
       <c r="R8" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S8" s="58"/>
       <c r="T8" s="58"/>
@@ -1914,11 +1912,11 @@
       <c r="T9" s="51"/>
       <c r="U9" s="51"/>
       <c r="V9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W9" s="8"/>
       <c r="X9" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="74"/>
       <c r="Z9" s="75"/>
@@ -1950,7 +1948,7 @@
     </row>
     <row r="10" spans="2:52" ht="15" customHeight="1">
       <c r="B10" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
@@ -1958,7 +1956,7 @@
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -1974,11 +1972,11 @@
       <c r="T10" s="51"/>
       <c r="U10" s="51"/>
       <c r="V10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W10" s="8"/>
       <c r="X10" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="74"/>
       <c r="Z10" s="75"/>
@@ -2030,11 +2028,11 @@
       <c r="T11" s="79"/>
       <c r="U11" s="79"/>
       <c r="V11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W11" s="8"/>
       <c r="X11" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="74"/>
       <c r="Z11" s="75"/>
@@ -2066,55 +2064,55 @@
     </row>
     <row r="12" spans="2:52" ht="15" customHeight="1">
       <c r="B12" s="76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="15">
         <v>3022053929</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="18">
         <v>1098815552</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="77"/>
       <c r="J12" s="15">
         <v>3022053929</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="20">
         <v>1098815552</v>
       </c>
       <c r="M12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="62" t="s">
         <v>29</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>30</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="62"/>
       <c r="R12" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" s="74"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
       <c r="V12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W12" s="8"/>
       <c r="X12" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="79"/>
       <c r="Z12" s="80"/>
@@ -2146,43 +2144,43 @@
     </row>
     <row r="13" spans="2:52" ht="15" customHeight="1">
       <c r="B13" s="76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="22"/>
       <c r="H13" s="76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="77"/>
       <c r="J13" s="77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="77"/>
       <c r="L13" s="77"/>
       <c r="M13" s="22"/>
       <c r="N13" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
       <c r="R13" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" s="79"/>
       <c r="T13" s="79"/>
       <c r="U13" s="79"/>
       <c r="V13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W13" s="8"/>
       <c r="X13" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" s="79"/>
       <c r="Z13" s="80"/>
@@ -2226,23 +2224,23 @@
       <c r="L14" s="17"/>
       <c r="M14" s="22"/>
       <c r="N14" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="62"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14" s="79"/>
       <c r="T14" s="79"/>
       <c r="U14" s="79"/>
       <c r="V14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W14" s="8"/>
       <c r="X14" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="79"/>
       <c r="Z14" s="80"/>
@@ -2274,27 +2272,27 @@
     </row>
     <row r="15" spans="2:52" ht="15" customHeight="1">
       <c r="B15" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="77"/>
       <c r="D15" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
       <c r="G15" s="22"/>
       <c r="H15" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="77"/>
       <c r="J15" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="77"/>
       <c r="L15" s="77"/>
       <c r="M15" s="22"/>
       <c r="N15" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="62"/>
@@ -2306,11 +2304,11 @@
       <c r="T15" s="79"/>
       <c r="U15" s="79"/>
       <c r="V15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W15" s="8"/>
       <c r="X15" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="79"/>
       <c r="Z15" s="80"/>
@@ -2362,11 +2360,11 @@
       <c r="T16" s="51"/>
       <c r="U16" s="51"/>
       <c r="V16" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W16" s="81"/>
       <c r="X16" s="82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="82"/>
       <c r="Z16" s="83"/>
@@ -2398,33 +2396,33 @@
     </row>
     <row r="17" spans="2:52" ht="15" customHeight="1">
       <c r="B17" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="28"/>
       <c r="H17" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="85"/>
       <c r="J17" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="28"/>
       <c r="N17" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S17" s="86"/>
       <c r="T17" s="86"/>
@@ -2458,7 +2456,7 @@
     </row>
     <row r="18" spans="2:52">
       <c r="B18" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
@@ -2472,7 +2470,7 @@
       <c r="L18" s="81"/>
       <c r="M18" s="90"/>
       <c r="N18" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O18" s="92"/>
       <c r="P18" s="92"/>
@@ -2514,7 +2512,7 @@
     </row>
     <row r="19" spans="2:52" ht="18" customHeight="1">
       <c r="B19" s="94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="95"/>
       <c r="D19" s="95"/>
@@ -2537,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="Q19" s="100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R19" s="101"/>
       <c r="S19" s="31">
@@ -2550,19 +2548,19 @@
         <v>3</v>
       </c>
       <c r="V19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="W19" s="31" t="s">
+      <c r="X19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="Y19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="31" t="s">
+      <c r="Z19" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="Z19" s="31" t="s">
-        <v>55</v>
       </c>
       <c r="AB19" s="30"/>
       <c r="AC19" s="30"/>
@@ -2613,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="Q20" s="100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R20" s="101"/>
       <c r="S20" s="31">
@@ -2626,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="V20" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
@@ -2660,12 +2658,12 @@
     </row>
     <row r="21" spans="2:52" ht="18" customHeight="1">
       <c r="B21" s="102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="102"/>
       <c r="D21" s="91"/>
       <c r="E21" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="104"/>
       <c r="G21" s="104"/>
@@ -2685,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="Q21" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R21" s="109"/>
       <c r="S21" s="31">
@@ -2698,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="V21" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W21" s="32"/>
       <c r="X21" s="32"/>
@@ -2753,7 +2751,7 @@
         <v>3</v>
       </c>
       <c r="Q22" s="110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R22" s="110"/>
       <c r="S22" s="36">
@@ -2766,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="V22" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
@@ -2812,7 +2810,7 @@
       <c r="L23" s="107"/>
       <c r="M23" s="108"/>
       <c r="N23" s="111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="112"/>
       <c r="P23" s="112"/>
@@ -2876,13 +2874,13 @@
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
       <c r="X24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y24" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Y24" s="41" t="s">
+      <c r="Z24" s="41" t="s">
         <v>65</v>
-      </c>
-      <c r="Z24" s="41" t="s">
-        <v>66</v>
       </c>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
@@ -2934,7 +2932,7 @@
       <c r="V25" s="40"/>
       <c r="W25" s="40"/>
       <c r="X25" s="114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y25" s="114"/>
       <c r="Z25" s="114"/>
@@ -2973,14 +2971,14 @@
       <c r="G26" s="116"/>
       <c r="H26" s="116"/>
       <c r="I26" s="117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" s="118"/>
       <c r="K26" s="116"/>
       <c r="L26" s="116"/>
       <c r="M26" s="44"/>
       <c r="N26" s="119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O26" s="120"/>
       <c r="P26" s="120"/>
@@ -3023,14 +3021,14 @@
     <row r="27" spans="2:52" ht="27.75" customHeight="1"/>
     <row r="28" spans="2:52" ht="15" customHeight="1">
       <c r="B28" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="H28" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
@@ -3080,9 +3078,7 @@
       <c r="I29" s="51"/>
       <c r="J29" s="51"/>
       <c r="K29" s="51"/>
-      <c r="L29" s="52" t="s">
-        <v>3</v>
-      </c>
+      <c r="L29" s="52"/>
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
@@ -3093,7 +3089,7 @@
       <c r="T29" s="52"/>
       <c r="U29" s="52"/>
       <c r="V29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W29" s="54">
         <v>10090</v>
@@ -3120,7 +3116,7 @@
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="H30" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -3159,7 +3155,7 @@
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="H31" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
@@ -3181,22 +3177,22 @@
     </row>
     <row r="32" spans="2:52">
       <c r="B32" s="56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
       <c r="E32" s="57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="57" t="s">
         <v>6</v>
-      </c>
-      <c r="K32" s="57" t="s">
-        <v>7</v>
       </c>
       <c r="L32" s="57"/>
       <c r="M32" s="57"/>
@@ -3209,11 +3205,11 @@
       <c r="T32" s="57"/>
       <c r="U32" s="7"/>
       <c r="V32" s="58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W32" s="58"/>
       <c r="X32" s="59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y32" s="59"/>
       <c r="Z32" s="60"/>
@@ -3243,24 +3239,24 @@
     </row>
     <row r="33" spans="2:52" ht="18.75" customHeight="1">
       <c r="B33" s="61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="62"/>
       <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="51" t="s">
         <v>12</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>13</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="63" t="s">
         <v>14</v>
-      </c>
-      <c r="K33" s="63" t="s">
-        <v>15</v>
       </c>
       <c r="L33" s="63"/>
       <c r="M33" s="63"/>
@@ -3273,11 +3269,11 @@
       <c r="T33" s="64"/>
       <c r="U33" s="11"/>
       <c r="V33" s="55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W33" s="55"/>
       <c r="X33" s="65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y33" s="65"/>
       <c r="Z33" s="66"/>
@@ -3303,7 +3299,7 @@
     </row>
     <row r="34" spans="2:52" ht="15" customHeight="1">
       <c r="B34" s="67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
@@ -3311,7 +3307,7 @@
       <c r="F34" s="68"/>
       <c r="G34" s="69"/>
       <c r="H34" s="67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" s="68"/>
       <c r="J34" s="68"/>
@@ -3319,13 +3315,13 @@
       <c r="L34" s="68"/>
       <c r="M34" s="69"/>
       <c r="N34" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O34" s="57"/>
       <c r="P34" s="57"/>
       <c r="Q34" s="57"/>
       <c r="R34" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S34" s="58"/>
       <c r="T34" s="58"/>
@@ -3383,11 +3379,11 @@
       <c r="T35" s="51"/>
       <c r="U35" s="51"/>
       <c r="V35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W35" s="8"/>
       <c r="X35" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y35" s="74"/>
       <c r="Z35" s="75"/>
@@ -3419,7 +3415,7 @@
     </row>
     <row r="36" spans="2:52" ht="15" customHeight="1">
       <c r="B36" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="77"/>
@@ -3427,7 +3423,7 @@
       <c r="F36" s="77"/>
       <c r="G36" s="78"/>
       <c r="H36" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
@@ -3443,11 +3439,11 @@
       <c r="T36" s="51"/>
       <c r="U36" s="51"/>
       <c r="V36" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W36" s="8"/>
       <c r="X36" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y36" s="74"/>
       <c r="Z36" s="75"/>
@@ -3499,11 +3495,11 @@
       <c r="T37" s="79"/>
       <c r="U37" s="79"/>
       <c r="V37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W37" s="8"/>
       <c r="X37" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y37" s="74"/>
       <c r="Z37" s="75"/>
@@ -3535,55 +3531,55 @@
     </row>
     <row r="38" spans="2:52" ht="15" customHeight="1">
       <c r="B38" s="76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="77"/>
       <c r="D38" s="15">
         <v>3022053929</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>1098815552</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H38" s="76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="77"/>
       <c r="J38" s="15">
         <v>3022053929</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L38" s="20">
         <v>1098815552</v>
       </c>
       <c r="M38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="62" t="s">
         <v>29</v>
-      </c>
-      <c r="N38" s="62" t="s">
-        <v>30</v>
       </c>
       <c r="O38" s="62"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
       <c r="R38" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S38" s="74"/>
       <c r="T38" s="74"/>
       <c r="U38" s="74"/>
       <c r="V38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W38" s="8"/>
       <c r="X38" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y38" s="79"/>
       <c r="Z38" s="80"/>
@@ -3615,43 +3611,43 @@
     </row>
     <row r="39" spans="2:52" ht="15" customHeight="1">
       <c r="B39" s="76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="77"/>
       <c r="F39" s="77"/>
       <c r="G39" s="22"/>
       <c r="H39" s="76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="77"/>
       <c r="J39" s="77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K39" s="77"/>
       <c r="L39" s="77"/>
       <c r="M39" s="22"/>
       <c r="N39" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O39" s="62"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="62"/>
       <c r="R39" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S39" s="79"/>
       <c r="T39" s="79"/>
       <c r="U39" s="79"/>
       <c r="V39" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W39" s="8"/>
       <c r="X39" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y39" s="79"/>
       <c r="Z39" s="80"/>
@@ -3695,23 +3691,23 @@
       <c r="L40" s="17"/>
       <c r="M40" s="22"/>
       <c r="N40" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O40" s="62"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="62"/>
       <c r="R40" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S40" s="79"/>
       <c r="T40" s="79"/>
       <c r="U40" s="79"/>
       <c r="V40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W40" s="8"/>
       <c r="X40" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y40" s="79"/>
       <c r="Z40" s="80"/>
@@ -3743,27 +3739,27 @@
     </row>
     <row r="41" spans="2:52" ht="15" customHeight="1">
       <c r="B41" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="77"/>
       <c r="F41" s="77"/>
       <c r="G41" s="22"/>
       <c r="H41" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="77"/>
       <c r="J41" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41" s="77"/>
       <c r="L41" s="77"/>
       <c r="M41" s="22"/>
       <c r="N41" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O41" s="62"/>
       <c r="P41" s="62"/>
@@ -3775,11 +3771,11 @@
       <c r="T41" s="79"/>
       <c r="U41" s="79"/>
       <c r="V41" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W41" s="8"/>
       <c r="X41" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y41" s="79"/>
       <c r="Z41" s="80"/>
@@ -3831,11 +3827,11 @@
       <c r="T42" s="51"/>
       <c r="U42" s="51"/>
       <c r="V42" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W42" s="81"/>
       <c r="X42" s="82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y42" s="82"/>
       <c r="Z42" s="83"/>
@@ -3867,33 +3863,33 @@
     </row>
     <row r="43" spans="2:52" ht="15" customHeight="1">
       <c r="B43" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="85"/>
       <c r="D43" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
       <c r="H43" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I43" s="85"/>
       <c r="J43" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
       <c r="M43" s="28"/>
       <c r="N43" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S43" s="86"/>
       <c r="T43" s="86"/>
@@ -3927,7 +3923,7 @@
     </row>
     <row r="44" spans="2:52" ht="15" customHeight="1">
       <c r="B44" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="89"/>
       <c r="D44" s="89"/>
@@ -3941,7 +3937,7 @@
       <c r="L44" s="81"/>
       <c r="M44" s="90"/>
       <c r="N44" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O44" s="92"/>
       <c r="P44" s="92"/>
@@ -3983,7 +3979,7 @@
     </row>
     <row r="45" spans="2:52" ht="18" customHeight="1">
       <c r="B45" s="94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="95"/>
       <c r="D45" s="95"/>
@@ -4006,7 +4002,7 @@
         <v>3</v>
       </c>
       <c r="Q45" s="100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R45" s="101"/>
       <c r="S45" s="31">
@@ -4019,19 +4015,19 @@
         <v>3</v>
       </c>
       <c r="V45" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="W45" s="31" t="s">
+      <c r="X45" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="X45" s="31" t="s">
+      <c r="Y45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y45" s="31" t="s">
+      <c r="Z45" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="Z45" s="31" t="s">
-        <v>55</v>
       </c>
       <c r="AB45" s="30"/>
       <c r="AC45" s="30"/>
@@ -4082,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="Q46" s="100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R46" s="101"/>
       <c r="S46" s="31">
@@ -4095,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="V46" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W46" s="32"/>
       <c r="X46" s="32"/>
@@ -4129,12 +4125,12 @@
     </row>
     <row r="47" spans="2:52" ht="18" customHeight="1">
       <c r="B47" s="102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="102"/>
       <c r="D47" s="91"/>
       <c r="E47" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" s="104"/>
       <c r="G47" s="104"/>
@@ -4154,7 +4150,7 @@
         <v>3</v>
       </c>
       <c r="Q47" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R47" s="109"/>
       <c r="S47" s="31">
@@ -4167,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="V47" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W47" s="32"/>
       <c r="X47" s="32"/>
@@ -4222,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="Q48" s="110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R48" s="110"/>
       <c r="S48" s="36">
@@ -4235,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="V48" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
@@ -4281,7 +4277,7 @@
       <c r="L49" s="107"/>
       <c r="M49" s="108"/>
       <c r="N49" s="111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O49" s="112"/>
       <c r="P49" s="112"/>
@@ -4345,13 +4341,13 @@
       <c r="V50" s="40"/>
       <c r="W50" s="40"/>
       <c r="X50" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y50" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Y50" s="41" t="s">
+      <c r="Z50" s="41" t="s">
         <v>65</v>
-      </c>
-      <c r="Z50" s="41" t="s">
-        <v>66</v>
       </c>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
@@ -4403,7 +4399,7 @@
       <c r="V51" s="40"/>
       <c r="W51" s="40"/>
       <c r="X51" s="114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y51" s="114"/>
       <c r="Z51" s="114"/>
@@ -4442,14 +4438,14 @@
       <c r="G52" s="116"/>
       <c r="H52" s="116"/>
       <c r="I52" s="121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J52" s="122"/>
       <c r="K52" s="116"/>
       <c r="L52" s="116"/>
       <c r="M52" s="44"/>
       <c r="N52" s="119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O52" s="120"/>
       <c r="P52" s="120"/>
@@ -4492,14 +4488,14 @@
     <row r="53" spans="2:52" ht="27.75" customHeight="1"/>
     <row r="54" spans="2:52" ht="15" customHeight="1">
       <c r="B54" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="49"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
       <c r="H54" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I54" s="51"/>
       <c r="J54" s="51"/>
@@ -4533,9 +4529,7 @@
       <c r="I55" s="51"/>
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
-      <c r="L55" s="52" t="s">
-        <v>3</v>
-      </c>
+      <c r="L55" s="52"/>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
       <c r="O55" s="52"/>
@@ -4546,7 +4540,7 @@
       <c r="T55" s="52"/>
       <c r="U55" s="52"/>
       <c r="V55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W55" s="54">
         <v>10090</v>
@@ -4560,7 +4554,7 @@
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="H56" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I56" s="51"/>
       <c r="J56" s="51"/>
@@ -4586,7 +4580,7 @@
       <c r="E57" s="50"/>
       <c r="F57" s="50"/>
       <c r="H57" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I57" s="55"/>
       <c r="J57" s="55"/>
@@ -4604,22 +4598,22 @@
     </row>
     <row r="58" spans="2:52" ht="15" customHeight="1">
       <c r="B58" s="56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="57"/>
       <c r="D58" s="57"/>
       <c r="E58" s="57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
       <c r="I58" s="57"/>
       <c r="J58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="57" t="s">
         <v>6</v>
-      </c>
-      <c r="K58" s="57" t="s">
-        <v>7</v>
       </c>
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
@@ -4632,35 +4626,35 @@
       <c r="T58" s="57"/>
       <c r="U58" s="7"/>
       <c r="V58" s="58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W58" s="58"/>
       <c r="X58" s="59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y58" s="59"/>
       <c r="Z58" s="60"/>
     </row>
     <row r="59" spans="2:52" ht="18.75" customHeight="1">
       <c r="B59" s="61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" s="62"/>
       <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="51" t="s">
         <v>12</v>
-      </c>
-      <c r="H59" s="51" t="s">
-        <v>13</v>
       </c>
       <c r="I59" s="51"/>
       <c r="J59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="63" t="s">
         <v>14</v>
-      </c>
-      <c r="K59" s="63" t="s">
-        <v>15</v>
       </c>
       <c r="L59" s="63"/>
       <c r="M59" s="63"/>
@@ -4673,18 +4667,18 @@
       <c r="T59" s="64"/>
       <c r="U59" s="11"/>
       <c r="V59" s="55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W59" s="55"/>
       <c r="X59" s="65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y59" s="65"/>
       <c r="Z59" s="66"/>
     </row>
     <row r="60" spans="2:52" ht="15" customHeight="1">
       <c r="B60" s="67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="68"/>
@@ -4692,7 +4686,7 @@
       <c r="F60" s="68"/>
       <c r="G60" s="69"/>
       <c r="H60" s="67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" s="68"/>
       <c r="J60" s="68"/>
@@ -4700,13 +4694,13 @@
       <c r="L60" s="68"/>
       <c r="M60" s="69"/>
       <c r="N60" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O60" s="57"/>
       <c r="P60" s="57"/>
       <c r="Q60" s="57"/>
       <c r="R60" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
@@ -4739,18 +4733,18 @@
       <c r="T61" s="123"/>
       <c r="U61" s="123"/>
       <c r="V61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W61" s="8"/>
       <c r="X61" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y61" s="74"/>
       <c r="Z61" s="75"/>
     </row>
     <row r="62" spans="2:52" ht="15" customHeight="1">
       <c r="B62" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" s="77"/>
       <c r="D62" s="77"/>
@@ -4758,7 +4752,7 @@
       <c r="F62" s="77"/>
       <c r="G62" s="78"/>
       <c r="H62" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" s="77"/>
       <c r="J62" s="77"/>
@@ -4774,11 +4768,11 @@
       <c r="T62" s="51"/>
       <c r="U62" s="51"/>
       <c r="V62" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W62" s="8"/>
       <c r="X62" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y62" s="74"/>
       <c r="Z62" s="75"/>
@@ -4805,109 +4799,109 @@
       <c r="T63" s="79"/>
       <c r="U63" s="79"/>
       <c r="V63" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W63" s="8"/>
       <c r="X63" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y63" s="74"/>
       <c r="Z63" s="75"/>
     </row>
     <row r="64" spans="2:52" ht="15" customHeight="1">
       <c r="B64" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="77"/>
       <c r="D64" s="15">
         <v>3022053929</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F64" s="18">
         <v>1098815552</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H64" s="76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" s="77"/>
       <c r="J64" s="15">
         <v>3022053929</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L64" s="20">
         <v>1098815552</v>
       </c>
       <c r="M64" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N64" s="62" t="s">
         <v>29</v>
-      </c>
-      <c r="N64" s="62" t="s">
-        <v>30</v>
       </c>
       <c r="O64" s="62"/>
       <c r="P64" s="62"/>
       <c r="Q64" s="62"/>
       <c r="R64" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S64" s="74"/>
       <c r="T64" s="74"/>
       <c r="U64" s="74"/>
       <c r="V64" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W64" s="8"/>
       <c r="X64" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y64" s="79"/>
       <c r="Z64" s="80"/>
     </row>
     <row r="65" spans="2:26" ht="15" customHeight="1">
       <c r="B65" s="76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" s="77"/>
       <c r="D65" s="77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" s="77"/>
       <c r="F65" s="77"/>
       <c r="G65" s="22"/>
       <c r="H65" s="76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I65" s="77"/>
       <c r="J65" s="77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K65" s="77"/>
       <c r="L65" s="77"/>
       <c r="M65" s="22"/>
       <c r="N65" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O65" s="62"/>
       <c r="P65" s="62"/>
       <c r="Q65" s="62"/>
       <c r="R65" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S65" s="79"/>
       <c r="T65" s="79"/>
       <c r="U65" s="79"/>
       <c r="V65" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W65" s="8"/>
       <c r="X65" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y65" s="79"/>
       <c r="Z65" s="80"/>
@@ -4926,50 +4920,50 @@
       <c r="L66" s="17"/>
       <c r="M66" s="22"/>
       <c r="N66" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O66" s="62"/>
       <c r="P66" s="62"/>
       <c r="Q66" s="62"/>
       <c r="R66" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S66" s="79"/>
       <c r="T66" s="79"/>
       <c r="U66" s="79"/>
       <c r="V66" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W66" s="8"/>
       <c r="X66" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y66" s="79"/>
       <c r="Z66" s="80"/>
     </row>
     <row r="67" spans="2:26" ht="15" customHeight="1">
       <c r="B67" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="77"/>
       <c r="D67" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E67" s="77"/>
       <c r="F67" s="77"/>
       <c r="G67" s="22"/>
       <c r="H67" s="76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I67" s="77"/>
       <c r="J67" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67" s="77"/>
       <c r="L67" s="77"/>
       <c r="M67" s="22"/>
       <c r="N67" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O67" s="62"/>
       <c r="P67" s="62"/>
@@ -4981,11 +4975,11 @@
       <c r="T67" s="79"/>
       <c r="U67" s="79"/>
       <c r="V67" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W67" s="8"/>
       <c r="X67" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y67" s="79"/>
       <c r="Z67" s="80"/>
@@ -5012,44 +5006,44 @@
       <c r="T68" s="51"/>
       <c r="U68" s="51"/>
       <c r="V68" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W68" s="81"/>
       <c r="X68" s="82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y68" s="82"/>
       <c r="Z68" s="83"/>
     </row>
     <row r="69" spans="2:26" ht="15" customHeight="1">
       <c r="B69" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="85"/>
       <c r="D69" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
       <c r="G69" s="28"/>
       <c r="H69" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I69" s="85"/>
       <c r="J69" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
       <c r="M69" s="28"/>
       <c r="N69" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S69" s="86"/>
       <c r="T69" s="86"/>
@@ -5062,7 +5056,7 @@
     </row>
     <row r="70" spans="2:26" ht="15" customHeight="1">
       <c r="B70" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="89"/>
       <c r="D70" s="89"/>
@@ -5076,7 +5070,7 @@
       <c r="L70" s="81"/>
       <c r="M70" s="90"/>
       <c r="N70" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O70" s="92"/>
       <c r="P70" s="92"/>
@@ -5093,7 +5087,7 @@
     </row>
     <row r="71" spans="2:26" ht="18" customHeight="1">
       <c r="B71" s="94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" s="95"/>
       <c r="D71" s="95"/>
@@ -5116,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="Q71" s="100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R71" s="101"/>
       <c r="S71" s="31">
@@ -5129,19 +5123,19 @@
         <v>3</v>
       </c>
       <c r="V71" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W71" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="W71" s="31" t="s">
+      <c r="X71" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="X71" s="31" t="s">
+      <c r="Y71" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y71" s="31" t="s">
+      <c r="Z71" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="Z71" s="31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="72" spans="2:26" ht="18" customHeight="1">
@@ -5167,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="Q72" s="100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R72" s="101"/>
       <c r="S72" s="31">
@@ -5180,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="V72" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W72" s="32"/>
       <c r="X72" s="32"/>
@@ -5189,12 +5183,12 @@
     </row>
     <row r="73" spans="2:26" ht="18" customHeight="1">
       <c r="B73" s="102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="102"/>
       <c r="D73" s="91"/>
       <c r="E73" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F73" s="104"/>
       <c r="G73" s="104"/>
@@ -5214,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="Q73" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R73" s="109"/>
       <c r="S73" s="31">
@@ -5227,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="V73" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W73" s="32"/>
       <c r="X73" s="32"/>
@@ -5257,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="Q74" s="110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R74" s="110"/>
       <c r="S74" s="36">
@@ -5270,7 +5264,7 @@
         <v>3</v>
       </c>
       <c r="V74" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
@@ -5291,7 +5285,7 @@
       <c r="L75" s="107"/>
       <c r="M75" s="108"/>
       <c r="N75" s="111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O75" s="112"/>
       <c r="P75" s="112"/>
@@ -5330,13 +5324,13 @@
       <c r="V76" s="40"/>
       <c r="W76" s="40"/>
       <c r="X76" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y76" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Y76" s="41" t="s">
+      <c r="Z76" s="41" t="s">
         <v>65</v>
-      </c>
-      <c r="Z76" s="41" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="77" spans="2:26" ht="15" customHeight="1">
@@ -5363,7 +5357,7 @@
       <c r="V77" s="40"/>
       <c r="W77" s="40"/>
       <c r="X77" s="114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y77" s="114"/>
       <c r="Z77" s="114"/>
@@ -5377,14 +5371,14 @@
       <c r="G78" s="116"/>
       <c r="H78" s="116"/>
       <c r="I78" s="124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J78" s="125"/>
       <c r="K78" s="116"/>
       <c r="L78" s="116"/>
       <c r="M78" s="44"/>
       <c r="N78" s="119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O78" s="120"/>
       <c r="P78" s="120"/>
